--- a/H2BR00/Rleased/BOM/H2BR00.xlsx
+++ b/H2BR00/Rleased/BOM/H2BR00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\OneDrive\Documents\H2BR0x-Hardware\H2BR00\Rleased\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moazzen\AppData\Local\Temp\Rar$DIa14600.4648\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1729752-6F81-4784-9F2C-002FE6127373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA249852-D37A-48A7-8B45-66632DFBC290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="188">
   <si>
     <t>Description</t>
   </si>
@@ -373,15 +373,9 @@
     <t>https://www.mouser.co.uk/ProductDetail/Analog-Devices/AD8232ACPZ-WP?qs=%2FtpEQrCGXCzCRiJ%252BumD7TQ%3D%3D</t>
   </si>
   <si>
-    <t>AD8232ACPZ-WP</t>
-  </si>
-  <si>
     <t>Analog Devices</t>
   </si>
   <si>
-    <t>Instrumentation Amplifier 20-Pin LFCSP EP Tray</t>
-  </si>
-  <si>
     <t>R4, R5, R6, R7, R9, R10</t>
   </si>
   <si>
@@ -580,19 +574,22 @@
     <t>https://octopart.com/rc0603jr-07680rl-yageo-40953172?r=sp</t>
   </si>
   <si>
-    <t>MCP6002-I/SN</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>MCP6002 Series 6 V 1 MHz SMT Low-Power Operational Amplifier - SOIC-8</t>
-  </si>
-  <si>
     <t>https://octopart.com/search?q=MCP6002&amp;currency=USD&amp;specs=0&amp;in_stock_only=1&amp;case_package=SOIC&amp;distributor_id=459</t>
   </si>
   <si>
     <t xml:space="preserve">EXG Monitor (H2BR00) </t>
+  </si>
+  <si>
+    <t>ECG and HRM IC Singl / Analog Front End - AF</t>
+  </si>
+  <si>
+    <t>AD8232ACPZ-R7</t>
+  </si>
+  <si>
+    <t>High bandwidth (20MH / Operational Amplifiers - Op Amps</t>
+  </si>
+  <si>
+    <t>TSV772IYDT</t>
   </si>
 </sst>
 </file>
@@ -603,7 +600,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -617,7 +614,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -628,21 +625,21 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -655,7 +652,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -676,7 +673,7 @@
     <font>
       <b/>
       <sz val="36"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -702,12 +699,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,8 +717,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -794,12 +797,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,21 +821,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -846,80 +903,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -956,7 +957,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2266217</xdr:colOff>
+      <xdr:colOff>1490965</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
@@ -1298,905 +1299,905 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="75.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="49" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="75.59765625" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.09765625" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="46.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="18" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="45.6" x14ac:dyDescent="0.75">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="26">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="27">
         <v>44767</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:7" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="F18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="29" t="s">
+      <c r="B25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="36">
+        <v>6</v>
+      </c>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="D38" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="27">
+      <c r="D46" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="F36" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+    <row r="47" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="22">
         <v>1</v>
       </c>
     </row>

--- a/H2BR00/Rleased/BOM/H2BR00.xlsx
+++ b/H2BR00/Rleased/BOM/H2BR00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moazzen\AppData\Local\Temp\Rar$DIa14600.4648\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moazzen\Documents\H2BR0x-Hardware\H2BR00\Rleased\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA249852-D37A-48A7-8B45-66632DFBC290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2250FF7A-07F7-40BE-8A5E-2F6995D5EF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,9 +370,6 @@
     <t>JS Series Sub-Miniature Slide Switch DPDT On-On Top Slide 0.3A 6VDC J-Lead Surface Mount T/R</t>
   </si>
   <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Analog-Devices/AD8232ACPZ-WP?qs=%2FtpEQrCGXCzCRiJ%252BumD7TQ%3D%3D</t>
-  </si>
-  <si>
     <t>Analog Devices</t>
   </si>
   <si>
@@ -574,9 +571,6 @@
     <t>https://octopart.com/rc0603jr-07680rl-yageo-40953172?r=sp</t>
   </si>
   <si>
-    <t>https://octopart.com/search?q=MCP6002&amp;currency=USD&amp;specs=0&amp;in_stock_only=1&amp;case_package=SOIC&amp;distributor_id=459</t>
-  </si>
-  <si>
     <t xml:space="preserve">EXG Monitor (H2BR00) </t>
   </si>
   <si>
@@ -590,13 +584,19 @@
   </si>
   <si>
     <t>TSV772IYDT</t>
+  </si>
+  <si>
+    <t>https://octopart.com/tsv772iydt-stmicroelectronics-126487015?r=sp</t>
+  </si>
+  <si>
+    <t>https://octopart.com/ad8232acpz-r7-analog+devices-21053983?r=sp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,13 +680,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -813,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,9 +857,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,11 +866,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -903,23 +909,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1299,9 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1361,11 +1349,11 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="31">
         <v>0</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1378,26 +1366,26 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="32">
         <v>44767</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>183</v>
+      <c r="B6" s="24" t="s">
+        <v>181</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1433,10 +1421,10 @@
       <c r="D9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1453,10 +1441,10 @@
       <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>2</v>
       </c>
     </row>
@@ -1473,15 +1461,15 @@
       <c r="D11" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -1493,15 +1481,15 @@
       <c r="D12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -1513,15 +1501,15 @@
       <c r="D13" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -1533,35 +1521,35 @@
       <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1573,35 +1561,35 @@
       <c r="D16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:7" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -1613,15 +1601,15 @@
       <c r="D18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -1633,15 +1621,15 @@
       <c r="D19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -1653,15 +1641,15 @@
       <c r="D20" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -1673,15 +1661,15 @@
       <c r="D21" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -1693,35 +1681,35 @@
       <c r="D22" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -1733,356 +1721,356 @@
       <c r="D24" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="F25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="28">
+        <v>6</v>
+      </c>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B27" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="36">
-        <v>6</v>
-      </c>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>162</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
-        <v>120</v>
+      <c r="A30" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
-        <v>121</v>
+      <c r="A31" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>122</v>
+      <c r="A32" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="22">
+      <c r="F32" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>123</v>
+      <c r="A33" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="22">
+      <c r="F33" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>124</v>
+      <c r="A34" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>125</v>
+      <c r="A35" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D35" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="F35" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="E36" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>127</v>
-      </c>
       <c r="B37" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="22">
+      <c r="F37" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
-        <v>128</v>
+      <c r="A38" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="22">
+      <c r="E38" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>129</v>
+      <c r="A39" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D39" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="22">
+      <c r="F39" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
-        <v>130</v>
+      <c r="A40" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="22">
+      <c r="F40" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
-        <v>131</v>
+      <c r="A41" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="22">
+        <v>178</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -2094,15 +2082,15 @@
       <c r="D42" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="19" t="s">
@@ -2114,55 +2102,55 @@
       <c r="D43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>186</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="22">
+        <v>185</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="19" t="s">
@@ -2174,15 +2162,15 @@
       <c r="D46" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -2194,10 +2182,10 @@
       <c r="D47" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2219,9 +2207,10 @@
     <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E46" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{7318647D-362F-4EBB-963F-8796F71410E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/H2BR00/Rleased/BOM/H2BR00.xlsx
+++ b/H2BR00/Rleased/BOM/H2BR00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moazzen\Documents\H2BR0x-Hardware\H2BR00\Rleased\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2250FF7A-07F7-40BE-8A5E-2F6995D5EF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3DACE4-8EDC-4EF7-B5A4-B20F60C1090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="193">
   <si>
     <t>Description</t>
   </si>
@@ -590,6 +590,21 @@
   </si>
   <si>
     <t>https://octopart.com/ad8232acpz-r7-analog+devices-21053983?r=sp</t>
+  </si>
+  <si>
+    <t>CAB1</t>
+  </si>
+  <si>
+    <t>SENSOR CABLE - ELECTRODE PADS (3</t>
+  </si>
+  <si>
+    <t>1568-1803-ND</t>
+  </si>
+  <si>
+    <t>SPARKFUN ELECTRONICS</t>
+  </si>
+  <si>
+    <t>https://octopart.com/cab-12970-sparkfun-76381356?r=sp</t>
   </si>
 </sst>
 </file>
@@ -888,6 +903,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -908,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1287,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -1349,11 +1364,11 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="32">
         <v>0</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1366,11 +1381,11 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="33">
         <v>44767</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1383,9 +1398,9 @@
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1761,7 +1776,7 @@
       <c r="D26" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F26" s="28">
@@ -2186,6 +2201,26 @@
         <v>55</v>
       </c>
       <c r="F47" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="21">
         <v>1</v>
       </c>
     </row>
